--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value667.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value667.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.766124567139578</v>
+        <v>1.971104264259338</v>
       </c>
       <c r="B1">
-        <v>1.939074791348836</v>
+        <v>2.576746940612793</v>
       </c>
       <c r="C1">
-        <v>2.039712949272731</v>
+        <v>2.719305753707886</v>
       </c>
       <c r="D1">
-        <v>2.789632515207454</v>
+        <v>3.385390043258667</v>
       </c>
       <c r="E1">
-        <v>2.69786854817367</v>
+        <v>1.036555886268616</v>
       </c>
     </row>
   </sheetData>
